--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes_ML\Tugas_PraktikumML-D_219-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA82C2F4-CA8B-4EF7-88F4-024FB245BC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D63E1F-6404-447B-A853-6BAFCAE49B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13270" yWindow="3650" windowWidth="11270" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="1870" windowWidth="11270" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>2. Andi Shafira Dyah Kurniasari (201810370311231)</t>
   </si>
   <si>
-    <t>Klasifikasi Citra Pigmen Kanker Kulit Menggunakan Convolutional Neural Network dengan Global Pooling Sebagai Tipe Layers API</t>
-  </si>
-  <si>
-    <t>https://isic-challenge-data.s3.amazonaws.com/2018/ISIC2018_Task3_Training_Input.zip</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.29207/resti.v5i2.3001</t>
-  </si>
-  <si>
-    <t>Challenge "ISIC 2018: Skin Lesion Analysis Towards Melanoma Detection"</t>
+    <t>Pneumonia detection in X-ray chest images based on convolutional neural networks and data augmentation methods</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/paultimothymooney/chest-xray-pneumonia</t>
+  </si>
+  <si>
+    <t>Chest X-Ray Images (Pneumonia)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23919/SPA50552.2020.9241305</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,13 +405,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -469,17 +469,15 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" tooltip="https://doi.org/10.29207/resti.v5i2.3001" xr:uid="{3ADF5907-9468-4D52-8604-E429AD2BF387}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes_ML\Tugas_PraktikumML-D_219-231\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D63E1F-6404-447B-A853-6BAFCAE49B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B648ECE9-CF3C-4CBC-AE53-0C5ADD36F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="1870" windowWidth="11270" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="330" windowWidth="11270" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>2. Andi Shafira Dyah Kurniasari (201810370311231)</t>
   </si>
   <si>
-    <t>Pneumonia detection in X-ray chest images based on convolutional neural networks and data augmentation methods</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/paultimothymooney/chest-xray-pneumonia</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>https://doi.org/10.23919/SPA50552.2020.9241305</t>
+  </si>
+  <si>
+    <t>Sistem Pakar Diagnosa Penyakit Pneumonia Menggunakan Metode Convolutional Neural Networks dan Augmentasi Data berbasis Web</t>
   </si>
 </sst>
 </file>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
